--- a/DateBase/orders/Dang Nguyen 195_2026-1-9.xlsx
+++ b/DateBase/orders/Dang Nguyen 195_2026-1-9.xlsx
@@ -668,6 +668,9 @@
       <c r="G2" t="str">
         <v>01612555551050122060561016205188024</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
